--- a/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D5965-BBCE-4CDC-B047-0EF7CBAB2DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA006CB-677B-4C13-B16B-AFD410D5D9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="461">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3866,10 +3866,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4908,8 +4908,12 @@
       <c r="P29" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
+      <c r="Q29" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>228</v>
+      </c>
       <c r="S29" s="38" t="s">
         <v>440</v>
       </c>
@@ -17414,27 +17418,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17692,32 +17675,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17736,6 +17715,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA006CB-677B-4C13-B16B-AFD410D5D9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D139C4-12E6-4BE8-87BE-3CC18B436A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3866,10 +3866,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17418,6 +17418,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17675,28 +17696,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17715,31 +17740,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D139C4-12E6-4BE8-87BE-3CC18B436A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DAEB15-986F-4BA6-A63E-B1FB1E5A0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1757,22 +1757,22 @@
 			deve essere maggiore o uguale di quello di effectiveTime/low : '20250704101546+0200'.]</t>
   </si>
   <si>
-    <t>2025-07-04T09:10:07Z</t>
-  </si>
-  <si>
-    <t>e5926e0b7982a8fa1141040472569006</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.6cb7788ca3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-04T10:12:34Z</t>
-  </si>
-  <si>
-    <t>5dc03f10f194c05b6fa1f0af58113afc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.92c3e19516^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>ac1d93260f6cda3bdb743c1cc6b6c53c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.898bc96860^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-21T12:06:29Z</t>
+  </si>
+  <si>
+    <t>2025-07-21T12:15:54Z</t>
+  </si>
+  <si>
+    <t>e40a6d51cb40ca01355896703b3ce593</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.8c02a883a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3866,10 +3866,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
+      <selection pane="bottomRight" activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10031,16 +10031,16 @@
         <v>243</v>
       </c>
       <c r="F164" s="37">
-        <v>45842</v>
+        <v>45859</v>
       </c>
       <c r="G164" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="H164" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="H164" s="37" t="s">
+      <c r="I164" s="42" t="s">
         <v>456</v>
-      </c>
-      <c r="I164" s="42" t="s">
-        <v>457</v>
       </c>
       <c r="J164" s="38" t="s">
         <v>64</v>
@@ -10078,7 +10078,7 @@
         <v>244</v>
       </c>
       <c r="F165" s="37">
-        <v>45842</v>
+        <v>45859</v>
       </c>
       <c r="G165" s="37" t="s">
         <v>458</v>
@@ -17418,27 +17418,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17696,32 +17675,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17740,6 +17715,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DAEB15-986F-4BA6-A63E-B1FB1E5A0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AC637-EB28-48BE-A202-5AD069295EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1757,22 +1757,22 @@
 			deve essere maggiore o uguale di quello di effectiveTime/low : '20250704101546+0200'.]</t>
   </si>
   <si>
-    <t>ac1d93260f6cda3bdb743c1cc6b6c53c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.898bc96860^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-21T12:06:29Z</t>
-  </si>
-  <si>
-    <t>2025-07-21T12:15:54Z</t>
-  </si>
-  <si>
-    <t>e40a6d51cb40ca01355896703b3ce593</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.8c02a883a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>ede6c58e18efe13be2d1249f04e4c315</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.8f51772c3a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-23T12:32:44Z</t>
+  </si>
+  <si>
+    <t>9b07510cfd6546485cb818c98e69d6d9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.161f0ceb1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-23T12:37:32Z</t>
   </si>
 </sst>
 </file>
@@ -3866,7 +3866,7 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I165" sqref="I165"/>
@@ -10031,7 +10031,7 @@
         <v>243</v>
       </c>
       <c r="F164" s="37">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="G164" s="37" t="s">
         <v>457</v>
@@ -10078,16 +10078,16 @@
         <v>244</v>
       </c>
       <c r="F165" s="37">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="G165" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H165" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="H165" s="37" t="s">
+      <c r="I165" s="42" t="s">
         <v>459</v>
-      </c>
-      <c r="I165" s="42" t="s">
-        <v>460</v>
       </c>
       <c r="J165" s="38" t="s">
         <v>64</v>
@@ -17418,6 +17418,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17675,28 +17696,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17715,31 +17740,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\accreditamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FulvioModesto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AC637-EB28-48BE-A202-5AD069295EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF39D6A-16D1-4E5F-942D-2BF917D0432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1757,22 +1757,22 @@
 			deve essere maggiore o uguale di quello di effectiveTime/low : '20250704101546+0200'.]</t>
   </si>
   <si>
-    <t>ede6c58e18efe13be2d1249f04e4c315</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.8f51772c3a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-23T12:32:44Z</t>
-  </si>
-  <si>
-    <t>9b07510cfd6546485cb818c98e69d6d9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.161f0ceb1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-23T12:37:32Z</t>
+    <t>2025-07-31T08:46:19Z</t>
+  </si>
+  <si>
+    <t>65f944aa42ff4985473e1eeb4baf03a9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.f739badff0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-31T09:23:00Z</t>
+  </si>
+  <si>
+    <t>49ccc54ef95516160d66a04a26485c6e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.5012754ac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3866,7 +3866,7 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I165" sqref="I165"/>
@@ -10031,16 +10031,16 @@
         <v>243</v>
       </c>
       <c r="F164" s="37">
-        <v>45861</v>
+        <v>45869</v>
       </c>
       <c r="G164" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="H164" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="I164" s="42" t="s">
         <v>457</v>
-      </c>
-      <c r="H164" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="I164" s="42" t="s">
-        <v>456</v>
       </c>
       <c r="J164" s="38" t="s">
         <v>64</v>
@@ -10078,16 +10078,16 @@
         <v>244</v>
       </c>
       <c r="F165" s="37">
-        <v>45861</v>
+        <v>45869</v>
       </c>
       <c r="G165" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="H165" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="I165" s="42" t="s">
         <v>460</v>
-      </c>
-      <c r="H165" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="I165" s="42" t="s">
-        <v>459</v>
       </c>
       <c r="J165" s="38" t="s">
         <v>64</v>
@@ -17418,27 +17418,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17696,32 +17675,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17740,6 +17715,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FulvioModesto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF39D6A-16D1-4E5F-942D-2BF917D0432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94339BD-D762-4CC2-9432-1BF093BA1E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="2985" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1757,22 +1757,22 @@
 			deve essere maggiore o uguale di quello di effectiveTime/low : '20250704101546+0200'.]</t>
   </si>
   <si>
-    <t>2025-07-31T08:46:19Z</t>
-  </si>
-  <si>
-    <t>65f944aa42ff4985473e1eeb4baf03a9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.f739badff0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-31T09:23:00Z</t>
-  </si>
-  <si>
-    <t>49ccc54ef95516160d66a04a26485c6e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.5012754ac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-07T10:10:25Z</t>
+  </si>
+  <si>
+    <t>f31f462edb8202baf94a610fdcb5d3ce</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.aae7efd641^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-08-07T10:16:13Z</t>
+  </si>
+  <si>
+    <t>68e322ea748c003d50f7efff6b1e77b0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.c78119c156^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3866,7 +3866,7 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I165" sqref="I165"/>
@@ -10031,7 +10031,7 @@
         <v>243</v>
       </c>
       <c r="F164" s="37">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G164" s="37" t="s">
         <v>455</v>
@@ -10078,7 +10078,7 @@
         <v>244</v>
       </c>
       <c r="F165" s="37">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="G165" s="37" t="s">
         <v>458</v>
@@ -17418,6 +17418,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17675,28 +17696,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17715,31 +17740,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/PROBUS srl/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94339BD-D762-4CC2-9432-1BF093BA1E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E14E080-D42B-4B6C-A751-05D19AAF5582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4035" yWindow="2985" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3866,10 +3866,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I165" sqref="I165"/>
+      <selection pane="bottomRight" activeCell="R139" sqref="R139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8763,7 +8763,7 @@
         <v>228</v>
       </c>
       <c r="R132" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S132" s="38" t="s">
         <v>443</v>
@@ -8824,7 +8824,7 @@
         <v>228</v>
       </c>
       <c r="R133" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S133" s="45" t="s">
         <v>443</v>
@@ -9090,7 +9090,7 @@
         <v>228</v>
       </c>
       <c r="R139" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="S139" s="38" t="s">
         <v>443</v>
@@ -17418,27 +17418,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17696,32 +17675,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17740,6 +17715,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
